--- a/data.xlsx
+++ b/data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="221">
   <si>
     <t xml:space="preserve">Endereço-ID</t>
   </si>
@@ -122,9 +122,6 @@
   </si>
   <si>
     <t xml:space="preserve">CORREIA PINTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVENIDA DUQUE DE CAXIAS  , S/N - (ESTAÇÃO DA TELESC)</t>
   </si>
   <si>
     <t xml:space="preserve">-27.59175</t>
@@ -989,8 +986,8 @@
   </sheetPr>
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1132,16 +1129,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>33</v>
-      </c>
+      <c r="C4" s="12"/>
       <c r="D4" s="8" t="s">
         <v>16</v>
       </c>
@@ -1151,10 +1146,10 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>35</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>20</v>
@@ -1170,27 +1165,27 @@
     </row>
     <row r="5" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>20</v>
@@ -1199,10 +1194,10 @@
         <v>20</v>
       </c>
       <c r="L5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="N5" s="10" t="s">
         <v>24</v>
@@ -1210,37 +1205,37 @@
     </row>
     <row r="6" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>46</v>
-      </c>
       <c r="D6" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N6" s="10" t="s">
         <v>24</v>
@@ -1248,13 +1243,13 @@
     </row>
     <row r="7" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>53</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>16</v>
@@ -1265,20 +1260,20 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="J7" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="K7" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N7" s="10" t="s">
         <v>24</v>
@@ -1286,39 +1281,39 @@
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>61</v>
-      </c>
       <c r="D8" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="J8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K8" s="8" t="s">
+      <c r="L8" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="M8" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>66</v>
       </c>
       <c r="N8" s="10" t="s">
         <v>24</v>
@@ -1326,39 +1321,39 @@
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>68</v>
-      </c>
       <c r="D9" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="J9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J9" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="L9" s="8" t="s">
+      <c r="M9" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="N9" s="10" t="s">
         <v>24</v>
@@ -1366,13 +1361,13 @@
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="C10" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>16</v>
@@ -1383,20 +1378,20 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="J10" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="J10" s="8" t="s">
-        <v>78</v>
-      </c>
       <c r="K10" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N10" s="10" t="s">
         <v>24</v>
@@ -1404,13 +1399,13 @@
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="9" t="s">
         <v>81</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>82</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>16</v>
@@ -1421,22 +1416,22 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="J11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="J11" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="K11" s="8" t="s">
+      <c r="L11" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="M11" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="N11" s="10" t="s">
         <v>24</v>
@@ -1444,39 +1439,39 @@
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>90</v>
-      </c>
       <c r="D12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="J12" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L12" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M12" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>94</v>
       </c>
       <c r="N12" s="10" t="s">
         <v>24</v>
@@ -1484,39 +1479,39 @@
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>96</v>
-      </c>
       <c r="D13" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="J13" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="J13" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="L13" s="8" t="s">
+      <c r="M13" s="8" t="s">
         <v>99</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>100</v>
       </c>
       <c r="N13" s="10" t="s">
         <v>24</v>
@@ -1524,39 +1519,39 @@
     </row>
     <row r="14" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="C14" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>103</v>
-      </c>
       <c r="D14" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="J14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="L14" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="J14" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="L14" s="8" t="s">
+      <c r="M14" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>107</v>
       </c>
       <c r="N14" s="10" t="s">
         <v>24</v>
@@ -1564,27 +1559,27 @@
     </row>
     <row r="15" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="C15" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>110</v>
-      </c>
       <c r="D15" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>112</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>20</v>
@@ -1593,10 +1588,10 @@
         <v>21</v>
       </c>
       <c r="L15" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="M15" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>114</v>
       </c>
       <c r="N15" s="10" t="s">
         <v>24</v>
@@ -1604,53 +1599,53 @@
     </row>
     <row r="16" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="C16" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>117</v>
-      </c>
       <c r="D16" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="I16" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="J16" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="L16" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="J16" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="L16" s="8" t="s">
+      <c r="M16" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="M16" s="8" t="s">
+      <c r="N16" s="10" t="s">
         <v>121</v>
-      </c>
-      <c r="N16" s="10" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="C17" s="9" t="s">
         <v>124</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>125</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>16</v>
@@ -1661,22 +1656,22 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="I17" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="J17" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="L17" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="J17" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="L17" s="8" t="s">
+      <c r="M17" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>129</v>
       </c>
       <c r="N17" s="10" t="s">
         <v>24</v>
@@ -1684,39 +1679,39 @@
     </row>
     <row r="18" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>131</v>
-      </c>
       <c r="D18" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="I18" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="J18" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="L18" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="J18" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>134</v>
-      </c>
       <c r="M18" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N18" s="10" t="s">
         <v>24</v>
@@ -1724,39 +1719,39 @@
     </row>
     <row r="19" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="C19" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>137</v>
-      </c>
       <c r="D19" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="I19" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="J19" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L19" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="J19" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="L19" s="8" t="s">
+      <c r="M19" s="8" t="s">
         <v>140</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>141</v>
       </c>
       <c r="N19" s="10" t="s">
         <v>24</v>
@@ -1764,27 +1759,27 @@
     </row>
     <row r="20" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="C20" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>144</v>
-      </c>
       <c r="D20" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="I20" s="8" t="s">
         <v>145</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>146</v>
       </c>
       <c r="J20" s="8" t="s">
         <v>20</v>
@@ -1793,10 +1788,10 @@
         <v>20</v>
       </c>
       <c r="L20" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="M20" s="8" t="s">
         <v>147</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>148</v>
       </c>
       <c r="N20" s="10" t="s">
         <v>24</v>
@@ -1804,39 +1799,39 @@
     </row>
     <row r="21" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="C21" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>151</v>
-      </c>
       <c r="D21" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="I21" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="J21" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L21" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="J21" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="L21" s="8" t="s">
+      <c r="M21" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>155</v>
       </c>
       <c r="N21" s="10" t="s">
         <v>24</v>
@@ -1844,53 +1839,53 @@
     </row>
     <row r="22" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="C22" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="D22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>158</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>159</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="I22" s="8" t="s">
         <v>160</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>161</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L22" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="M22" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="M22" s="8" t="s">
-        <v>163</v>
-      </c>
       <c r="N22" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="C23" s="9" t="s">
         <v>165</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>166</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>16</v>
@@ -1901,20 +1896,20 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="I23" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="I23" s="8" t="s">
-        <v>168</v>
-      </c>
       <c r="J23" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N23" s="10" t="s">
         <v>24</v>
@@ -1922,39 +1917,39 @@
     </row>
     <row r="24" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="C24" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>172</v>
-      </c>
       <c r="D24" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="I24" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="J24" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K24" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="J24" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K24" s="8" t="s">
+      <c r="L24" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="L24" s="8" t="s">
+      <c r="M24" s="8" t="s">
         <v>176</v>
-      </c>
-      <c r="M24" s="8" t="s">
-        <v>177</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>24</v>
@@ -1962,39 +1957,39 @@
     </row>
     <row r="25" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="C25" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>180</v>
-      </c>
       <c r="D25" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="I25" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="J25" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L25" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="J25" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="L25" s="8" t="s">
+      <c r="M25" s="8" t="s">
         <v>183</v>
-      </c>
-      <c r="M25" s="8" t="s">
-        <v>184</v>
       </c>
       <c r="N25" s="10" t="s">
         <v>24</v>
@@ -2002,13 +1997,13 @@
     </row>
     <row r="26" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="C26" s="9" t="s">
         <v>186</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>187</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>16</v>
@@ -2019,22 +2014,22 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="I26" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="I26" s="8" t="s">
+      <c r="J26" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L26" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="J26" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="L26" s="8" t="s">
+      <c r="M26" s="8" t="s">
         <v>190</v>
-      </c>
-      <c r="M26" s="8" t="s">
-        <v>191</v>
       </c>
       <c r="N26" s="10" t="s">
         <v>24</v>
@@ -2042,51 +2037,51 @@
     </row>
     <row r="27" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="C27" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>194</v>
-      </c>
       <c r="D27" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="I27" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="I27" s="8" t="s">
-        <v>196</v>
-      </c>
       <c r="J27" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L27" s="8"/>
       <c r="M27" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="C28" s="12" t="s">
         <v>199</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>200</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>16</v>
@@ -2097,19 +2092,19 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="I28" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="I28" s="11" t="s">
+      <c r="J28" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="L28" s="11" t="s">
         <v>202</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="L28" s="11" t="s">
-        <v>203</v>
       </c>
       <c r="M28" s="11"/>
       <c r="N28" s="10" t="s">
@@ -2118,13 +2113,13 @@
     </row>
     <row r="29" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>16</v>
@@ -2135,19 +2130,19 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="I29" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="J29" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="L29" s="11" t="s">
         <v>207</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K29" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="L29" s="11" t="s">
-        <v>208</v>
       </c>
       <c r="M29" s="11"/>
       <c r="N29" s="10" t="s">
@@ -2156,13 +2151,13 @@
     </row>
     <row r="30" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>209</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>210</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>16</v>
@@ -2173,19 +2168,19 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="I30" s="11" t="s">
         <v>211</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>212</v>
       </c>
       <c r="J30" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M30" s="11"/>
       <c r="N30" s="10" t="s">
@@ -2194,13 +2189,13 @@
     </row>
     <row r="31" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>214</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>215</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>16</v>
@@ -2211,16 +2206,16 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="I31" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="I31" s="11" t="s">
-        <v>217</v>
-      </c>
       <c r="J31" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
@@ -2230,13 +2225,13 @@
     </row>
     <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>218</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>219</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>16</v>
@@ -2247,16 +2242,16 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="I32" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="I32" s="13" t="s">
-        <v>221</v>
-      </c>
       <c r="J32" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L32" s="11"/>
       <c r="M32" s="11" t="n">
